--- a/test1.xlsx
+++ b/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nozomu-tanaka\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nozomu-tanaka\develop\excelSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E35D721-ADA3-481B-978E-BE221859669A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310380B7-20F5-4C5F-9C0D-F5357AB4F975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="1212" windowWidth="17280" windowHeight="8964" xr2:uid="{AE1A49A2-01D0-4319-9EE3-00B6373663D7}"/>
+    <workbookView xWindow="4800" yWindow="1092" windowWidth="17280" windowHeight="8964" xr2:uid="{AE1A49A2-01D0-4319-9EE3-00B6373663D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,41 +34,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devices/abcd1234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://u57nfat2zh.execute-api.ap-northeast-1.amazonaws.com/prod/v1/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+    "deviceToken": "1234567",
+    "corpId": "corp001",
+    "storeId": "store001",
+    "terminalId": "terminal001"
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devices</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -76,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +120,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -110,17 +152,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,50 +485,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943FEE52-0B10-4C70-AA08-833D2964E6B7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>201</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{DC7F3335-B0EB-4F5E-A376-AD55F1B4C287}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>